--- a/MySite Documents/20150829_criteria Peilingslijst Barroc-IT z.p. v1-0.xlsx
+++ b/MySite Documents/20150829_criteria Peilingslijst Barroc-IT z.p. v1-0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2015-2016\Excel\Klas 2\Barroc-IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Documents\GitHub\BarrocIT\MySite Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>NR</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>in het Engels</t>
+  </si>
+  <si>
+    <t>Santino, Steven, Tom</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1068,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,56 +1160,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1587,9 +1590,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1627,7 +1630,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1699,7 +1702,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1855,7 +1858,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,15 +1885,17 @@
       <c r="E3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="F3" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1905,38 +1910,38 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
+      <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="71" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1948,8 +1953,8 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="7" t="s">
         <v>71</v>
       </c>
@@ -1963,8 +1968,8 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1980,8 +1985,8 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1995,8 +2000,8 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2011,8 +2016,8 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="19" t="s">
         <v>40</v>
       </c>
@@ -2029,8 +2034,8 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="19" t="s">
         <v>41</v>
       </c>
@@ -2045,8 +2050,8 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
@@ -2061,22 +2066,22 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="20"/>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
@@ -2089,8 +2094,8 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="19" t="s">
         <v>33</v>
       </c>
@@ -2105,8 +2110,8 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
@@ -2118,8 +2123,8 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
@@ -2131,8 +2136,8 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
@@ -2149,21 +2154,21 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
+      <c r="A23" s="68">
         <v>2</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="71" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2176,8 +2181,8 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="19" t="s">
         <v>34</v>
       </c>
@@ -2192,8 +2197,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="35" t="s">
         <v>70</v>
       </c>
@@ -2206,8 +2211,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="36" t="s">
         <v>69</v>
       </c>
@@ -2221,8 +2226,8 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="7" t="s">
         <v>78</v>
       </c>
@@ -2235,8 +2240,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="7" t="s">
         <v>8</v>
       </c>
@@ -2253,8 +2258,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="7" t="s">
         <v>89</v>
       </c>
@@ -2267,8 +2272,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="19" t="s">
         <v>44</v>
       </c>
@@ -2281,21 +2286,21 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51">
+      <c r="A32" s="68">
         <v>3</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="71" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="45" t="s">
@@ -2312,8 +2317,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2328,8 +2333,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="7" t="s">
         <v>10</v>
       </c>
@@ -2339,8 +2344,8 @@
       <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="10" t="s">
         <v>45</v>
       </c>
@@ -2353,8 +2358,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="39" t="s">
         <v>19</v>
       </c>
@@ -2367,8 +2372,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="19" t="s">
         <v>22</v>
       </c>
@@ -2381,8 +2386,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="19" t="s">
         <v>20</v>
       </c>
@@ -2395,8 +2400,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="19" t="s">
         <v>21</v>
       </c>
@@ -2409,8 +2414,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="19" t="s">
         <v>23</v>
       </c>
@@ -2423,21 +2428,21 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51">
+      <c r="A42" s="68">
         <v>4</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="71" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -2454,8 +2459,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="40" t="s">
         <v>27</v>
       </c>
@@ -2470,8 +2475,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="40" t="s">
         <v>30</v>
       </c>
@@ -2484,8 +2489,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="55"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="40" t="s">
         <v>29</v>
       </c>
@@ -2495,8 +2500,8 @@
       <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="40" t="s">
         <v>37</v>
       </c>
@@ -2511,8 +2516,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="40" t="s">
         <v>68</v>
       </c>
@@ -2525,15 +2530,15 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="56"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -2548,8 +2553,8 @@
     </row>
     <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="77"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,14 +2565,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B8:B22"/>
@@ -2579,6 +2576,14 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A8:A22"/>
     <mergeCell ref="D48:G48"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2587,6 +2592,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -2635,15 +2649,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -2651,13 +2656,32 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3219500-68EB-4E20-B087-2C73C77310E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF48199A-BF41-4CE8-887D-8CE863E78AFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF48199A-BF41-4CE8-887D-8CE863E78AFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3219500-68EB-4E20-B087-2C73C77310E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20467F77-DABA-40C4-8663-6F8C30A56EF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20467F77-DABA-40C4-8663-6F8C30A56EF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>